--- a/DATA/0916_Timestep_Calculation.xlsx
+++ b/DATA/0916_Timestep_Calculation.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
